--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33268-d82662-Reviews-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Vagabond-Inn-Whittier.h41962.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1184 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r559917590-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>33268</t>
+  </si>
+  <si>
+    <t>82662</t>
+  </si>
+  <si>
+    <t>559917590</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Pet Friendly</t>
+  </si>
+  <si>
+    <t>I titled this review "Pet Friendly" because that's really the saving grace of this hotel.  Okay, it's convenient and other hotels on Whittier Blvd are as worn-out as this one is.  In spite of being pet-friendly, there isn't any area for the dogs to do their business other than the street facing lawn area you see in the photos.  What is the hotel itself like?  Rooms are small, headboards smell like BO, towels are about as thin as car wash cloth, there is not enough parking for all of the rooms and you need to let the front desk know that you want daily housekeeping.  MoreShow less</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>I titled this review "Pet Friendly" because that's really the saving grace of this hotel.  Okay, it's convenient and other hotels on Whittier Blvd are as worn-out as this one is.  In spite of being pet-friendly, there isn't any area for the dogs to do their business other than the street facing lawn area you see in the photos.  What is the hotel itself like?  Rooms are small, headboards smell like BO, towels are about as thin as car wash cloth, there is not enough parking for all of the rooms and you need to let the front desk know that you want daily housekeeping.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r538535840-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>538535840</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Nice stay in Whittier</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the comfort and quietness of this budget motel.  The room was clean and spacious.  Continental breakfast was minimal but there are many restaurants nearby.  I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>WhittierVI, Manager at Vagabond Inn - Whittier, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the comfort and quietness of this budget motel.  The room was clean and spacious.  Continental breakfast was minimal but there are many restaurants nearby.  I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r496204912-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>496204912</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>I will stay again</t>
+  </si>
+  <si>
+    <t>I like this hotel and I'm lucky to get a reservation because they tend to book up very quickly.  The property is kept neat and tidy, the rooms are nice and always clean.  The staff is pleasant and helpful if you need them. They offer a light breakfast which is very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>I like this hotel and I'm lucky to get a reservation because they tend to book up very quickly.  The property is kept neat and tidy, the rooms are nice and always clean.  The staff is pleasant and helpful if you need them. They offer a light breakfast which is very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r448572078-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>448572078</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Not exactly as advertised....very overpriced for value</t>
+  </si>
+  <si>
+    <t>The description for the room says "a comfortable bed with plenty of pillows for a pleasant stay." Hmm we were greeted by a stale smelling room with three very small wadded up pillows. The room was so so. Have a few pet peeves when travel. Don't like to see mold in the bathroom and don't like taking cold showers. Got both this place. Very minimal amenities provided with one regular coffee pod for 2 people?The Inn is located on a busy street and it was fairly noisy between the road traffic and other patrons. Heard the couple next to us yelling loudly the first night were kept awake by a large family group the next. While we were listed as a non smoking room, did not have a smoking area so the other patrons just smoked on the balconies and stairways. Breakfast is always appreciated this one was very minimalist and truly continental. No sources of protein. No trays of larger carry items to bring items back to room to heat up in microwave. Very inconvenient in the pouring rain....wanted to give this place a higher rating but can not.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>The description for the room says "a comfortable bed with plenty of pillows for a pleasant stay." Hmm we were greeted by a stale smelling room with three very small wadded up pillows. The room was so so. Have a few pet peeves when travel. Don't like to see mold in the bathroom and don't like taking cold showers. Got both this place. Very minimal amenities provided with one regular coffee pod for 2 people?The Inn is located on a busy street and it was fairly noisy between the road traffic and other patrons. Heard the couple next to us yelling loudly the first night were kept awake by a large family group the next. While we were listed as a non smoking room, did not have a smoking area so the other patrons just smoked on the balconies and stairways. Breakfast is always appreciated this one was very minimalist and truly continental. No sources of protein. No trays of larger carry items to bring items back to room to heat up in microwave. Very inconvenient in the pouring rain....wanted to give this place a higher rating but can not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r447518646-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>447518646</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Going downhill</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here once or twice a year for the last ten years and have always been happy with our rooms. However, the lack of maintaining their facility is really starting to show. Shower leaked and flooded the floor, mold on the bathroom walls, carpet so filthy that is beyond hope of ever getting cleaned. When I asked to speak with the manager/owner, I was first told they were not there. When I pointed to his car, I was told he was not available. Time to find other accommodations in Whittier.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed here once or twice a year for the last ten years and have always been happy with our rooms. However, the lack of maintaining their facility is really starting to show. Shower leaked and flooded the floor, mold on the bathroom walls, carpet so filthy that is beyond hope of ever getting cleaned. When I asked to speak with the manager/owner, I was first told they were not there. When I pointed to his car, I was told he was not available. Time to find other accommodations in Whittier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r439288892-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>439288892</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Clean Room</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a birthday party nearby, the Check-in &amp; Check-out was fast and simple.  Room was clean and the Bed was comfy.  Good Location, close to  restaurants, shopping and bars. Minutes from Uptown Whittier.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here to attend a birthday party nearby, the Check-in &amp; Check-out was fast and simple.  Room was clean and the Bed was comfy.  Good Location, close to  restaurants, shopping and bars. Minutes from Uptown Whittier.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433426197-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>433426197</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Management was horrible</t>
+  </si>
+  <si>
+    <t>The customer service I received was really bad, they were dismissive and I got ignored, also the rooms were dirty and I asked for a non smoking room and our room smelled like smoke soo bad. The top cover for the bed was stained, some of the walls were dirty, the carpet was stained. I think for all the money I paid I expected a lot more!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>The customer service I received was really bad, they were dismissive and I got ignored, also the rooms were dirty and I asked for a non smoking room and our room smelled like smoke soo bad. The top cover for the bed was stained, some of the walls were dirty, the carpet was stained. I think for all the money I paid I expected a lot more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433424801-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>433424801</t>
+  </si>
+  <si>
+    <t>Excellent For 1 Night</t>
+  </si>
+  <si>
+    <t>Selected this hotel because I have stayed at other Vagabonds and this location meet my needs. Easy to find, had a mini-fridge and microwave. For the price I paid it did the job.  I would book this hotel again if I have to stay in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Selected this hotel because I have stayed at other Vagabonds and this location meet my needs. Easy to find, had a mini-fridge and microwave. For the price I paid it did the job.  I would book this hotel again if I have to stay in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433408373-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>433408373</t>
+  </si>
+  <si>
+    <t>whittier college home coming</t>
+  </si>
+  <si>
+    <t>the room was  nice I liked having a frig and a big king size bed which was comfy the shower was nice I liked having cable tv the vanity area was roomy as was the closet the manger helped me with my bagsMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>the room was  nice I liked having a frig and a big king size bed which was comfy the shower was nice I liked having cable tv the vanity area was roomy as was the closet the manger helped me with my bagsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r422656049-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>422656049</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Business Stay</t>
+  </si>
+  <si>
+    <t>Very affordable &amp; clean, Dollar Store across the street, Wells Fargo ATM, a Dunkin Donuts, El Pollo Loco. Rooms are clean, showers hot &amp; air conditioner is cold. It's a great location other food etc nearby.sMoreShow less</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Very affordable &amp; clean, Dollar Store across the street, Wells Fargo ATM, a Dunkin Donuts, El Pollo Loco. Rooms are clean, showers hot &amp; air conditioner is cold. It's a great location other food etc nearby.sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r412519509-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>412519509</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Thumbs Up!</t>
+  </si>
+  <si>
+    <t>Clean and updated rooms, courteous and helpful staff. I've stayed here numerous times, and have never had any negative issues. When I need a place to stay in the area, the Vagabond Inn, will continue to be my choice. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, General Manager at Vagabond Inn - Whittier, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Clean and updated rooms, courteous and helpful staff. I've stayed here numerous times, and have never had any negative issues. When I need a place to stay in the area, the Vagabond Inn, will continue to be my choice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r400190921-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>400190921</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Not what we expected...</t>
+  </si>
+  <si>
+    <t>Online the room seemed normal/average. Was supposed to be a non-smoking room but the room smelled awful. It was most likely recently converted from a smoking room. The room was clean but still seemed "dingy" and poorly lit. Reserved for a week, but changed to another hotel after one night. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Online the room seemed normal/average. Was supposed to be a non-smoking room but the room smelled awful. It was most likely recently converted from a smoking room. The room was clean but still seemed "dingy" and poorly lit. Reserved for a week, but changed to another hotel after one night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r389260777-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>389260777</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Great exsperiance</t>
+  </si>
+  <si>
+    <t>Clean and newly remodled. Centeralized and ok to walk around at dark in the neibor cose by. Im military just dropong in  and i will be usint them again only wished there was a way to book for a fool month but california will not allow you..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Clean and newly remodled. Centeralized and ok to walk around at dark in the neibor cose by. Im military just dropong in  and i will be usint them again only wished there was a way to book for a fool month but california will not allow you..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r388722291-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>388722291</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed and shower </t>
+  </si>
+  <si>
+    <t>The showers are nice , bathroom as well , and bed was comfortable but smelled a little  funky. Front desk was helpful and  nice. Morning breakfasts was okay.  Rate was okay $135 per night at 4 of July  weekend. They do have a pool but i didnt go on it. I would stay again but I would  stay on the third floor. Our Overall stayed was pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>The showers are nice , bathroom as well , and bed was comfortable but smelled a little  funky. Front desk was helpful and  nice. Morning breakfasts was okay.  Rate was okay $135 per night at 4 of July  weekend. They do have a pool but i didnt go on it. I would stay again but I would  stay on the third floor. Our Overall stayed was pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r380713594-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>380713594</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Okay, but...</t>
+  </si>
+  <si>
+    <t>I've stayed at the Whittier Vagabond many times due to its proximity to my sister's house and downtown and it's reasonable rates.  Other that that, it has little to recommend itself.  The rooms are reasonably clean but the walkways and stairs could use a good power-washing.  The room I stayed in my last visit had numerous maintenance issues.  The minute button on the clock didn't work so the time could not be set accurately.  The last digit of the AC/heat unit didn't light up so that setting the room's temperature was a guessing game.  And the faucet in the bathroom just flopped around.  The motel advertises a continental breakfast but it is very barebones and there is a single table in the very small lobby. Overall it's okay but could use some improvement.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded June 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at the Whittier Vagabond many times due to its proximity to my sister's house and downtown and it's reasonable rates.  Other that that, it has little to recommend itself.  The rooms are reasonably clean but the walkways and stairs could use a good power-washing.  The room I stayed in my last visit had numerous maintenance issues.  The minute button on the clock didn't work so the time could not be set accurately.  The last digit of the AC/heat unit didn't light up so that setting the room's temperature was a guessing game.  And the faucet in the bathroom just flopped around.  The motel advertises a continental breakfast but it is very barebones and there is a single table in the very small lobby. Overall it's okay but could use some improvement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r361528250-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>361528250</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Hotel rating</t>
+  </si>
+  <si>
+    <t>The property is just getting old and needs updating rooms and outside need safety features added if they're going to have a small breakfast in the morning they need to separate it from the office otherwise a friendly placeMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded April 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2016</t>
+  </si>
+  <si>
+    <t>The property is just getting old and needs updating rooms and outside need safety features added if they're going to have a small breakfast in the morning they need to separate it from the office otherwise a friendly placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r359815465-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>359815465</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Just s DIRTY mess</t>
+  </si>
+  <si>
+    <t>They did lite make over counter top &amp; faucets which were badly installed. Floor corners packed with dirt, carpet needed cleaning &amp; walls dirty. I couldn't get the table top clean with my disinfected wipes.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>They did lite make over counter top &amp; faucets which were badly installed. Floor corners packed with dirt, carpet needed cleaning &amp; walls dirty. I couldn't get the table top clean with my disinfected wipes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r355415300-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>355415300</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>The room had nice crown moldings, comfortable beds, wifi and tv.  However, the carpet was very dirty and the bedspread and shames were worn out.  Old built-up dirt in the corners on the bathroom floor.  Basically old dirt built up in many areas.  Don't go barefoot.MoreShow less</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>The room had nice crown moldings, comfortable beds, wifi and tv.  However, the carpet was very dirty and the bedspread and shames were worn out.  Old built-up dirt in the corners on the bathroom floor.  Basically old dirt built up in many areas.  Don't go barefoot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r346979394-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>346979394</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t>We like the elevator,good for handicapped. Clean</t>
+  </si>
+  <si>
+    <t>Need ground level or elevator, so it is good for that. The front desk is always accomodating. Beds are good, A/c &amp; heat good &amp; ref mcro in rooms. We need a room in this area, &amp; seems one of the better but can get pricey on Wknds or holidays.Some ground floor rooms have trip hazards- watch your step on walkways. Alot of broken cement.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2016</t>
+  </si>
+  <si>
+    <t>Need ground level or elevator, so it is good for that. The front desk is always accomodating. Beds are good, A/c &amp; heat good &amp; ref mcro in rooms. We need a room in this area, &amp; seems one of the better but can get pricey on Wknds or holidays.Some ground floor rooms have trip hazards- watch your step on walkways. Alot of broken cement.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r343406139-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>343406139</t>
+  </si>
+  <si>
+    <t>01/28/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>great place will stay there again  Front desk was helpful and check in was easy we checked out early the next morning so we did not use the free continental breakfast that was offered, maybe next time we stay we will not have to leave so early.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>great place will stay there again  Front desk was helpful and check in was easy we checked out early the next morning so we did not use the free continental breakfast that was offered, maybe next time we stay we will not have to leave so early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r334124309-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>334124309</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Get away, get away</t>
+  </si>
+  <si>
+    <t>My fiancé and I work a lot of hours and sometimes like quiet and time to ourselves away from the animal babies and decided to stay the night at this motel. It was close to restaurants where we went for drinks and appetizers. Clean and very quiet. Close to shopping centers and decent pricing. Will stay again when we need another weekend out. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded December 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2015</t>
+  </si>
+  <si>
+    <t>My fiancé and I work a lot of hours and sometimes like quiet and time to ourselves away from the animal babies and decided to stay the night at this motel. It was close to restaurants where we went for drinks and appetizers. Clean and very quiet. Close to shopping centers and decent pricing. Will stay again when we need another weekend out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r326358310-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>326358310</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>bed bugs</t>
+  </si>
+  <si>
+    <t>i called said there are bed bugs and it takes over a month and then they tell me no bugs....they lie and don't return all your money.  they want you to sleep with bugs.Nasty place dont stay here!!!  I am still so mad they could have fixed this and they dont care..  dont call corporate they dont call either!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r326327486-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>326327486</t>
+  </si>
+  <si>
+    <t>Tweek Motel</t>
+  </si>
+  <si>
+    <t>This hotel reminded me of the seedy ones in Vegas.  We only stayed here because everywhere else was booked.  The room smelled of cigarettes and flop sweat and was kind of old.  This place could use a remodel.  For the price, I expected much nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>This hotel reminded me of the seedy ones in Vegas.  We only stayed here because everywhere else was booked.  The room smelled of cigarettes and flop sweat and was kind of old.  This place could use a remodel.  For the price, I expected much nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r324794239-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>324794239</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Fell due to your negligence and your management didn't even call back, but my attorney did</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had made reservation 10/27 had al info and email to check into my handicap room on the 1st floor HANDICAP !!!! AJ was A racial, degraded me as a female Cldnt find res no H.C. em 3hrs Ltr put on flr 2 </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r312225552-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>312225552</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Vagabond Inn</t>
+  </si>
+  <si>
+    <t>My wife and I checked in to the vagabond inn in Whittier on a Saturday,we were very pleased with the manager,he was very friendly and tried to accommodate us any way he could,the rooms are very clean and everything worked including the bathtub,I was amazed at that,9 of 10 motels the tub has no plug or stopper,my kids love to take baths rather than showers,the tv was a 40 inch and got a lot of channels,bed was ultimately comfortable,had a great microwave n a big fridge,pool is sparkling clear,air conditioner worked fantastic,lots of stores n food places near by,we definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>WhittierVI, Front Office Manager at Vagabond Inn - Whittier, responded to this reviewResponded October 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I checked in to the vagabond inn in Whittier on a Saturday,we were very pleased with the manager,he was very friendly and tried to accommodate us any way he could,the rooms are very clean and everything worked including the bathtub,I was amazed at that,9 of 10 motels the tub has no plug or stopper,my kids love to take baths rather than showers,the tv was a 40 inch and got a lot of channels,bed was ultimately comfortable,had a great microwave n a big fridge,pool is sparkling clear,air conditioner worked fantastic,lots of stores n food places near by,we definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r303502026-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>303502026</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Clean, friendly staff and good value</t>
+  </si>
+  <si>
+    <t>Second time I have stayed at this hotel and they have upgraded some since I was last there.  My only complaint is the stained carpet and 80's bedspread.  The entire staff is very friendly and the continental breakfast is good. Will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Second time I have stayed at this hotel and they have upgraded some since I was last there.  My only complaint is the stained carpet and 80's bedspread.  The entire staff is very friendly and the continental breakfast is good. Will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r294777693-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>294777693</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Very pleased.</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here for three nights this passed week and were very pleased. The room was very clean and the bed was the comfiest bed I've ever slept in. The staff was wonderful. Very nice and willing to accommodate our needs. The location was perfect for us. We did a lot of things in Hollywood, Warner Bros Studios and the beaches. If you're not looking for fancy but rather a clean, convenient place to stay with very nice people, this is the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here for three nights this passed week and were very pleased. The room was very clean and the bed was the comfiest bed I've ever slept in. The staff was wonderful. Very nice and willing to accommodate our needs. The location was perfect for us. We did a lot of things in Hollywood, Warner Bros Studios and the beaches. If you're not looking for fancy but rather a clean, convenient place to stay with very nice people, this is the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r287459436-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>287459436</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Friendly</t>
+  </si>
+  <si>
+    <t>We were traveling from Vegas and looking for somewhere close to LA, CA.  Found the Vagabon Inn online and booked it.  Great location, clean rooms. Stacey was great, knew the area well and recommended several places that were great.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>We were traveling from Vegas and looking for somewhere close to LA, CA.  Found the Vagabon Inn online and booked it.  Great location, clean rooms. Stacey was great, knew the area well and recommended several places that were great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r286602614-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>286602614</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Good location for a reasonable price</t>
+  </si>
+  <si>
+    <t>We chose this place for its location since it is 30 min to Disneyland, 50 min to Universal Studios. The price was reasonable and the hotel had a parking lot. There is a local supermarket next to the hotel so you can get supplies just by walking couple minutes. There are many restaurants and shopping areas on Whittier Street so you can easily have something to eat within walking distance. The hotel breakfast consists of cereals, muffins, danish pastry and fruits. If you are happy with such breakfast you will not be disappointed. The hotel needs some renovation, especially carpets need to be changed. All you need is couple minutes walk on the carpet to get your soles of feet all black.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We chose this place for its location since it is 30 min to Disneyland, 50 min to Universal Studios. The price was reasonable and the hotel had a parking lot. There is a local supermarket next to the hotel so you can get supplies just by walking couple minutes. There are many restaurants and shopping areas on Whittier Street so you can easily have something to eat within walking distance. The hotel breakfast consists of cereals, muffins, danish pastry and fruits. If you are happy with such breakfast you will not be disappointed. The hotel needs some renovation, especially carpets need to be changed. All you need is couple minutes walk on the carpet to get your soles of feet all black.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r274855839-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>274855839</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Dirty and discourteous...VERY disappointed</t>
+  </si>
+  <si>
+    <t>First, we were informed that we would need to leave before 10am instead of the regular noon departure because tree trimmers were expected.  sure enough, they showed up...at 8:15 AM, with all the noise you would expect.Second, the room was not clean.  The easy chair was so stained, that i placed a towel over it.  The bath mat had a long black hair attached to it.  Wait, i am not done.  Two of the three pillows also had several long black hairs clinging to them.  I had my own pillows, but i did not sleep well.  In fact i would have not stayed except it was so late and i was tired.To top all this off, while packing up to leave i found a cute little bug under the covers...ughI will NEVER stay at this hotel again!!Very dissapointedMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>First, we were informed that we would need to leave before 10am instead of the regular noon departure because tree trimmers were expected.  sure enough, they showed up...at 8:15 AM, with all the noise you would expect.Second, the room was not clean.  The easy chair was so stained, that i placed a towel over it.  The bath mat had a long black hair attached to it.  Wait, i am not done.  Two of the three pillows also had several long black hairs clinging to them.  I had my own pillows, but i did not sleep well.  In fact i would have not stayed except it was so late and i was tired.To top all this off, while packing up to leave i found a cute little bug under the covers...ughI will NEVER stay at this hotel again!!Very dissapointedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r211586712-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>211586712</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Nice ADA retofit</t>
+  </si>
+  <si>
+    <t>The first thing you will notice the handicap parking spots are elevated so the slope to the walkway is minimal. We had a single queen bed that looked newer and newer bedding and furniture. The roll in shower was made from tile and had some slopes to make the water flow in the correct direction so the floor near the toilet was at an angle. The main shower head did not work but the handheld did. A built-in seat and a free standing one were both in our room. An older hotel, could use some paint but it was clean and quiet which is all we really want.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r211019614-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>211019614</t>
+  </si>
+  <si>
+    <t>06/18/2014</t>
+  </si>
+  <si>
+    <t>Newly Renovated and it Shows</t>
+  </si>
+  <si>
+    <t>We stayed here one night, between a rosary and a funeral, so it was extremely important to have a comfortable room. Not only was the room rate very good, but the king bed, the shower, and the flat screen TV all showed what a good job they had done in renovating the hotel. The bed was as good as we have at home, and the shower had a "rain" type shower head. Combined with big fluffy towels, we were very glad we picked this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r206308367-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>206308367</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a great place close to restaurants, shopping and close to the main highways. The rooms were a nice size. I will defiantly stay there Again next time I'm in the area. An inexpensive option but good quality option. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r180458220-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>180458220</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Good but WiFi and TV kept cutting out</t>
+  </si>
+  <si>
+    <t>I really like this hotel . Clean and good service the negatives are:Useless WiFiUseless TV. Both kept cutting out. I am here to work and made things very difficult.The breakfast is a bad joke. Only junk food available.Having said that, I would stay here again if I needed to be in this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r175775159-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>175775159</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>4th stay at Vagabond</t>
+  </si>
+  <si>
+    <t>Rooms are clean and reasonable--nice pool too. Ask for a "stay" card when checking in---I believe a certain amount of days gets a free day. TV in rooms is also very good. Shower was something we appreciate and it was very good.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r161722959-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>161722959</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>We were travelling to Whittier to our granddaughter's graduation from Whittier College.  When my husband told me that he booked us into the Vagabond Inn, I was not thrilled.  However, upon arrival there, I was pleasantly surprised to find that the room had obviously been recently renovated with all new fixtures in the bathroom including an ecologically correct state-of-the-art toilet.  The room was very clean and the mattress must have been new because it was so comfortable.  The breakfast was located in the office and was the usual cereal, muffins, sweet roll, etc.  No place was available to sit except outside or back in your room.  However, the only truly upscale hotel in Whittier charges at least $100 more per night with no free breakfast.   The Vagabond owners are working to upgrade the motel and obviously care about its appearance as they maintain cheerful flower plantings and shrubs around the parking area and the pool.  All of the staff was very pleasant and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>We were travelling to Whittier to our granddaughter's graduation from Whittier College.  When my husband told me that he booked us into the Vagabond Inn, I was not thrilled.  However, upon arrival there, I was pleasantly surprised to find that the room had obviously been recently renovated with all new fixtures in the bathroom including an ecologically correct state-of-the-art toilet.  The room was very clean and the mattress must have been new because it was so comfortable.  The breakfast was located in the office and was the usual cereal, muffins, sweet roll, etc.  No place was available to sit except outside or back in your room.  However, the only truly upscale hotel in Whittier charges at least $100 more per night with no free breakfast.   The Vagabond owners are working to upgrade the motel and obviously care about its appearance as they maintain cheerful flower plantings and shrubs around the parking area and the pool.  All of the staff was very pleasant and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r154800740-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>154800740</t>
+  </si>
+  <si>
+    <t>03/16/2013</t>
+  </si>
+  <si>
+    <t>Hard to believe it's ranked #1.</t>
+  </si>
+  <si>
+    <t>We must have been given a room that was in the process of renovation. (Room 306). The room was very musty when we arrived, but we just opened the (what seemed to be new) window and turned on the pleasantly quiet air conditioning. The smell dissipated fairly quickly. The light on the phone was blinking upon arrival (we expected the traditional recorded welcome so many motels use these days) but the button was permanently depressed so we couldn't get the message. We covered the blinking light with the note pad. There was no flat-screen T.V. - not a big deal for us. But, there was a functional microwave and a small refrigerator. 
+The bathroom looked freshly tiled, but whoever painted it let the paint run down and pool in one of the corners. Also, though we had a non-smoking room, there was a cigarette stain on the toilet seat. And, maintenance people take note - the bathroom door could not be closed! (Also, spray a little WD-40 on that fan - it'll probably quiet right down.) 
+The ceiling in the room was obviously water damaged at some point and is in poor condition. The beds seemed fine though the covers and carpeting were really out-dated. 
+The highway is a little noisy and be forewarned - a hospital is nearby - we were wakened four times by sirens.
+BTW: there is a great little family owned restaurant just west of the...We must have been given a room that was in the process of renovation. (Room 306). The room was very musty when we arrived, but we just opened the (what seemed to be new) window and turned on the pleasantly quiet air conditioning. The smell dissipated fairly quickly. The light on the phone was blinking upon arrival (we expected the traditional recorded welcome so many motels use these days) but the button was permanently depressed so we couldn't get the message. We covered the blinking light with the note pad. There was no flat-screen T.V. - not a big deal for us. But, there was a functional microwave and a small refrigerator. The bathroom looked freshly tiled, but whoever painted it let the paint run down and pool in one of the corners. Also, though we had a non-smoking room, there was a cigarette stain on the toilet seat. And, maintenance people take note - the bathroom door could not be closed! (Also, spray a little WD-40 on that fan - it'll probably quiet right down.) The ceiling in the room was obviously water damaged at some point and is in poor condition. The beds seemed fine though the covers and carpeting were really out-dated. The highway is a little noisy and be forewarned - a hospital is nearby - we were wakened four times by sirens.BTW: there is a great little family owned restaurant just west of the motel - Scottys - nice people and good food!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We must have been given a room that was in the process of renovation. (Room 306). The room was very musty when we arrived, but we just opened the (what seemed to be new) window and turned on the pleasantly quiet air conditioning. The smell dissipated fairly quickly. The light on the phone was blinking upon arrival (we expected the traditional recorded welcome so many motels use these days) but the button was permanently depressed so we couldn't get the message. We covered the blinking light with the note pad. There was no flat-screen T.V. - not a big deal for us. But, there was a functional microwave and a small refrigerator. 
+The bathroom looked freshly tiled, but whoever painted it let the paint run down and pool in one of the corners. Also, though we had a non-smoking room, there was a cigarette stain on the toilet seat. And, maintenance people take note - the bathroom door could not be closed! (Also, spray a little WD-40 on that fan - it'll probably quiet right down.) 
+The ceiling in the room was obviously water damaged at some point and is in poor condition. The beds seemed fine though the covers and carpeting were really out-dated. 
+The highway is a little noisy and be forewarned - a hospital is nearby - we were wakened four times by sirens.
+BTW: there is a great little family owned restaurant just west of the...We must have been given a room that was in the process of renovation. (Room 306). The room was very musty when we arrived, but we just opened the (what seemed to be new) window and turned on the pleasantly quiet air conditioning. The smell dissipated fairly quickly. The light on the phone was blinking upon arrival (we expected the traditional recorded welcome so many motels use these days) but the button was permanently depressed so we couldn't get the message. We covered the blinking light with the note pad. There was no flat-screen T.V. - not a big deal for us. But, there was a functional microwave and a small refrigerator. The bathroom looked freshly tiled, but whoever painted it let the paint run down and pool in one of the corners. Also, though we had a non-smoking room, there was a cigarette stain on the toilet seat. And, maintenance people take note - the bathroom door could not be closed! (Also, spray a little WD-40 on that fan - it'll probably quiet right down.) The ceiling in the room was obviously water damaged at some point and is in poor condition. The beds seemed fine though the covers and carpeting were really out-dated. The highway is a little noisy and be forewarned - a hospital is nearby - we were wakened four times by sirens.BTW: there is a great little family owned restaurant just west of the motel - Scottys - nice people and good food!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r153464815-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>153464815</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Room looked updated. Beds were very comfortable, pool looked nice. Breakfast in the morning was just continental, but it was good. Overall good service. Room had a flat screen T.V. and nice shower heads.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r152980040-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>152980040</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Better than expected</t>
+  </si>
+  <si>
+    <t>Really, at this price point, it is better than would be expected.  Recently updated rooms and clean, which is my most important criteria. Only complaint would be that the nice man at the front desk had no clue as to the area.  The only places he knew to eat at were Polly's (which despite being obviously closed due to a fire, the huge bariicade one could see from the Vagabond, he kept reccomending to us) and MacDonald's.  Imagine our surprise the next morning in finding tons of choices within a few miles!  Geesh, did they just beam him into the front office?!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r146703675-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>146703675</t>
+  </si>
+  <si>
+    <t>12/03/2012</t>
+  </si>
+  <si>
+    <t>Good value, clean, safe, great location</t>
+  </si>
+  <si>
+    <t>I have stayed here several times over the years.  Continues to be a good priced room, clean, safe parking lot.  This is right on Whittier Blvd -- very easy to get to many things.  Rooms for two people are a little small -- but furniture is nice, bathroom/shower is nice -- just a real good place to stay.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r146343186-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>146343186</t>
+  </si>
+  <si>
+    <t>11/27/2012</t>
+  </si>
+  <si>
+    <t>Clran room - Good Value in Whittier, CA</t>
+  </si>
+  <si>
+    <t>Clean rooms good service and safe. Friendly staff, close to restaurants ,malls ,target and fast food &amp; Pet Friendly. Well maintained inside and out, free wi fi , free parking, cable tv80+ ch good value 60-80$ a nite Definitely Recommend</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r143737586-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>143737586</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r136098723-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>136098723</t>
+  </si>
+  <si>
+    <t>08/02/2012</t>
+  </si>
+  <si>
+    <t>Gets the job done</t>
+  </si>
+  <si>
+    <t>This motel was clean and the service was good.  Breakfast means small danishes and muffins, cereal, coffee, juice, and milk that you pick up to go from the desk.  I don't have much experience staying in motels, but it seemed nice. Pros:Clean rooms and linens.Cons:The walls are a bit too thin for my taste; there were contruction workers were staying next door to me and woke me up every morning at a ridiculous hour talking outside my door and running their trucks.  Also, the landscaper/gardener was using a leaf blower before I had a chance to go about my business for the day.  I would definitely recommend that if you choose to stay here you request a room that is NOT on the ground floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel was clean and the service was good.  Breakfast means small danishes and muffins, cereal, coffee, juice, and milk that you pick up to go from the desk.  I don't have much experience staying in motels, but it seemed nice. Pros:Clean rooms and linens.Cons:The walls are a bit too thin for my taste; there were contruction workers were staying next door to me and woke me up every morning at a ridiculous hour talking outside my door and running their trucks.  Also, the landscaper/gardener was using a leaf blower before I had a chance to go about my business for the day.  I would definitely recommend that if you choose to stay here you request a room that is NOT on the ground floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r136000207-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>136000207</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>It's Okay for a Short Stay</t>
+  </si>
+  <si>
+    <t>This is an older motel with small rooms that have been nicely updated.  We stayed there for two nights while attending a wedding.  It is conveniently located and not far from downtown Whittier.  It is also less than 30 minutes from Disneyland.  There is a new Family Dollar Store across the street, which is handy if you need to buy snacks or travel items.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r133407430-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>133407430</t>
+  </si>
+  <si>
+    <t>07/03/2012</t>
+  </si>
+  <si>
+    <t>Very satisfied and pleasantly surprised.</t>
+  </si>
+  <si>
+    <t>Booked at a good rate for 5 nights thru Expedia.  Check-in was nice and easy.  Sweet elderly ladies run the desk.  We knew it had been remodeled 2 years ago, but our room on the 2nd floor which faced the pool (which was nice and clean) looked more like it had been done 2 months ago.  Very clean and new!  Microwave, fridge and flat screen were all relatively new.  A/c worked fine.  Had iron and board.  Housekeeping came every day and did a great job.  The showerhead was of a much higher quality than most motels or "inns".  Breakfast was the absolute basics, didn't bother with loads of options for all daily meals in both directions.  Easy to find from LAX, about an hour and 15 minutes during peak traffic hours.  Only 30 minutes from Disneyland Resort and Universal Studios.  Right around the corner from downtown Whittier which is fantastic.   It was so quiet and safe.  The bed was one of the most comfortable beds I have ever slept on.  A+ on that!  Highly recommend!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Booked at a good rate for 5 nights thru Expedia.  Check-in was nice and easy.  Sweet elderly ladies run the desk.  We knew it had been remodeled 2 years ago, but our room on the 2nd floor which faced the pool (which was nice and clean) looked more like it had been done 2 months ago.  Very clean and new!  Microwave, fridge and flat screen were all relatively new.  A/c worked fine.  Had iron and board.  Housekeeping came every day and did a great job.  The showerhead was of a much higher quality than most motels or "inns".  Breakfast was the absolute basics, didn't bother with loads of options for all daily meals in both directions.  Easy to find from LAX, about an hour and 15 minutes during peak traffic hours.  Only 30 minutes from Disneyland Resort and Universal Studios.  Right around the corner from downtown Whittier which is fantastic.   It was so quiet and safe.  The bed was one of the most comfortable beds I have ever slept on.  A+ on that!  Highly recommend!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r120763611-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>120763611</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Your getting a little more then you pay for:)</t>
+  </si>
+  <si>
+    <t>I stay here about 3 times a yr. It is blocks away from my fathers house is why I stay here when I visit SoCal but wanted to write a review to showcase what a great central location it is to everything else the greater LA area has to offer. Seems it's just minutes to everywhere.We have used this hotel as a base for visits to KnoxBerry Farm, Santa monico and Venice beach, HW,BH,HB,Disney Land ect... Flown in from LGB,SNA,LAX &amp; BUR Not to bad of a drive from any...Overall I like this Inn and it's location and will continue to use them when I visit b/c the price is right, the rooms are clean, staff is friendly and I think it's central location to everything(IMO) Rocks!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here about 3 times a yr. It is blocks away from my fathers house is why I stay here when I visit SoCal but wanted to write a review to showcase what a great central location it is to everything else the greater LA area has to offer. Seems it's just minutes to everywhere.We have used this hotel as a base for visits to KnoxBerry Farm, Santa monico and Venice beach, HW,BH,HB,Disney Land ect... Flown in from LGB,SNA,LAX &amp; BUR Not to bad of a drive from any...Overall I like this Inn and it's location and will continue to use them when I visit b/c the price is right, the rooms are clean, staff is friendly and I think it's central location to everything(IMO) Rocks!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r120633871-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>120633871</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Long Travel Times</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 nights in Oct 2011 and did not really care for the hotel. First night the room above us was "really busy" with people coming and going all night, did not have a great feeling after that but the rest of stay was quieter. Continental breakfast consists of pastries, fruit , and cereals. The good thing about the location was it was hot and we could sit by the pool while the 45 minute drive to the beach would be 18C and foggy.Main problem is going to the beach or Hollywood or anywhere is a 45 minute drive on the freeways from this hotel.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r118428132-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>118428132</t>
+  </si>
+  <si>
+    <t>09/21/2011</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We had a great time at the Vagabond inn. Large and clean rooms, beds were comfortable. Free breakfast was okay, consisting of muffins, coffee, juice, hot and cold cereals, and pastries. Staff was extremely friendly, providing helpful service. A little bit noisy since the hotel is right on the main road. Safe neighborhood. Lots of shops, restaraunts, and stores on Whittier blvd. Pool was also very nice</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r87910877-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>87910877</t>
+  </si>
+  <si>
+    <t>11/22/2010</t>
+  </si>
+  <si>
+    <t>Friendly, clean, like going home</t>
+  </si>
+  <si>
+    <t>We have been staying at the Vagabond Inn in Whittier, Ca. for over 5 years now and feel like we have gone home when we are there.  From the front desk to the housekeeping staff they make you feel like family.  We haven't and won't stay anywhere other than the Vagabond Inn when we visit our family in Whittier, Ca.</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r76567446-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>76567446</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>Clean, safe, supportive management &amp; cleaning staffs - the MOST PET FRIENDLY hotel in California!!</t>
+  </si>
+  <si>
+    <t>We needed a last minute hotel in LA area that is pet friendly, safe and clean because of an early baby arrival. We systematically search the Internet and comb everything within a 10 miles radius from LA. Found that there are quite a number that are priced around or slight lower or higher than Vagabond. However, the lower priced one, when I called and said we want double beds, there's a baby and a pet --- their prices went UP (much higher than Vagabond's)!! 
+Vagabond is also one of the few that have reviewS on Expedia and that prompted us to try it out. Our thoughts is that we'll do a 3-days booking and can always move to another if needed.
+Here's why I give them 5 stars recommendations -
+1. Smooth, hassle free check-in
+2. On day 2, our HUGE 120 pounds Old English Sheepdog sneaked out of the room!!
+- fortunately the hotel staff noticed it
+- they managed to coax him, got hold of him and put our dog into another empty room which they secured thoroughly! (you see, they were fearful that our dog is a houdini who knows how to open doors)
+- They called us on the mobile and this ends well!!!
+3. The cleaners for the room were very flexible and worked with us on the time for cleaning (because we need to 'walk' our dog at that time)
+4. Breakfast was simple...We needed a last minute hotel in LA area that is pet friendly, safe and clean because of an early baby arrival. We systematically search the Internet and comb everything within a 10 miles radius from LA. Found that there are quite a number that are priced around or slight lower or higher than Vagabond. However, the lower priced one, when I called and said we want double beds, there's a baby and a pet --- their prices went UP (much higher than Vagabond's)!! Vagabond is also one of the few that have reviewS on Expedia and that prompted us to try it out. Our thoughts is that we'll do a 3-days booking and can always move to another if needed.Here's why I give them 5 stars recommendations -1. Smooth, hassle free check-in2. On day 2, our HUGE 120 pounds Old English Sheepdog sneaked out of the room!!- fortunately the hotel staff noticed it- they managed to coax him, got hold of him and put our dog into another empty room which they secured thoroughly! (you see, they were fearful that our dog is a houdini who knows how to open doors)- They called us on the mobile and this ends well!!!3. The cleaners for the room were very flexible and worked with us on the time for cleaning (because we need to 'walk' our dog at that time)4. Breakfast was simple but more than adequate - muffins, cereals, coffee, tea ....5. Management is very helpful when we needed extra towels, to send or receive fax .... in fact, we enjoyed just talking to them whenever we pass by the lobby6. We've driven around and are very happy that we did not stay at any of the other hotels which look shabby and unclean. Vagabond is in a safe neighborhood, clean and we extended our stay to more than a week!7. We even drove to Disney from there (short and easy drive)8. Food, restaurants, Target, the mall ....everything is nearby!Well, we are not hotel critiques or experts BUT we know a good value, friendly people and a great dog friendly hotelGansSeattleMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>We needed a last minute hotel in LA area that is pet friendly, safe and clean because of an early baby arrival. We systematically search the Internet and comb everything within a 10 miles radius from LA. Found that there are quite a number that are priced around or slight lower or higher than Vagabond. However, the lower priced one, when I called and said we want double beds, there's a baby and a pet --- their prices went UP (much higher than Vagabond's)!! 
+Vagabond is also one of the few that have reviewS on Expedia and that prompted us to try it out. Our thoughts is that we'll do a 3-days booking and can always move to another if needed.
+Here's why I give them 5 stars recommendations -
+1. Smooth, hassle free check-in
+2. On day 2, our HUGE 120 pounds Old English Sheepdog sneaked out of the room!!
+- fortunately the hotel staff noticed it
+- they managed to coax him, got hold of him and put our dog into another empty room which they secured thoroughly! (you see, they were fearful that our dog is a houdini who knows how to open doors)
+- They called us on the mobile and this ends well!!!
+3. The cleaners for the room were very flexible and worked with us on the time for cleaning (because we need to 'walk' our dog at that time)
+4. Breakfast was simple...We needed a last minute hotel in LA area that is pet friendly, safe and clean because of an early baby arrival. We systematically search the Internet and comb everything within a 10 miles radius from LA. Found that there are quite a number that are priced around or slight lower or higher than Vagabond. However, the lower priced one, when I called and said we want double beds, there's a baby and a pet --- their prices went UP (much higher than Vagabond's)!! Vagabond is also one of the few that have reviewS on Expedia and that prompted us to try it out. Our thoughts is that we'll do a 3-days booking and can always move to another if needed.Here's why I give them 5 stars recommendations -1. Smooth, hassle free check-in2. On day 2, our HUGE 120 pounds Old English Sheepdog sneaked out of the room!!- fortunately the hotel staff noticed it- they managed to coax him, got hold of him and put our dog into another empty room which they secured thoroughly! (you see, they were fearful that our dog is a houdini who knows how to open doors)- They called us on the mobile and this ends well!!!3. The cleaners for the room were very flexible and worked with us on the time for cleaning (because we need to 'walk' our dog at that time)4. Breakfast was simple but more than adequate - muffins, cereals, coffee, tea ....5. Management is very helpful when we needed extra towels, to send or receive fax .... in fact, we enjoyed just talking to them whenever we pass by the lobby6. We've driven around and are very happy that we did not stay at any of the other hotels which look shabby and unclean. Vagabond is in a safe neighborhood, clean and we extended our stay to more than a week!7. We even drove to Disney from there (short and easy drive)8. Food, restaurants, Target, the mall ....everything is nearby!Well, we are not hotel critiques or experts BUT we know a good value, friendly people and a great dog friendly hotelGansSeattleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r53867686-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>53867686</t>
+  </si>
+  <si>
+    <t>01/19/2010</t>
+  </si>
+  <si>
+    <t>Very nice place, good price</t>
+  </si>
+  <si>
+    <t>Before booking I read mixed reviews about this place. I have to say I was impressed. Apparently they remodeled the place about a year ago and the bed and bathroom are comfortable and clean. I traveled with my dog, having no problems at all. The service was good.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r8260112-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>8260112</t>
+  </si>
+  <si>
+    <t>07/29/2007</t>
+  </si>
+  <si>
+    <t>Never Stay Here Again</t>
+  </si>
+  <si>
+    <t>First of all, the staff who was  woman name Carol was VERY rude. The room we stayed in is filthy and disgusting, spots all over the floor and holes in the walls. Then we went to go to the pool... We took a guest with us that we were visiting while we were in town and they kicked the guest out saying that ONLY people who stayed in the hotel could use their pool.  When I asked to speak to the manager and what her name was, she told me "KP". I said is KP her whole name and she said that was all she was going to tell me was "KP". I never did get to talk to her.And pets are allowed here, but they charge $10.00 per night, per pet something else that their site fails to mention. When my husband was putting a plug in the outlet, it sparked. This place is terrible, We would never stay here again.!I probably could of handled most of it, except when staff are rude like Carol was. They should fire her.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>First of all, the staff who was  woman name Carol was VERY rude. The room we stayed in is filthy and disgusting, spots all over the floor and holes in the walls. Then we went to go to the pool... We took a guest with us that we were visiting while we were in town and they kicked the guest out saying that ONLY people who stayed in the hotel could use their pool.  When I asked to speak to the manager and what her name was, she told me "KP". I said is KP her whole name and she said that was all she was going to tell me was "KP". I never did get to talk to her.And pets are allowed here, but they charge $10.00 per night, per pet something else that their site fails to mention. When my husband was putting a plug in the outlet, it sparked. This place is terrible, We would never stay here again.!I probably could of handled most of it, except when staff are rude like Carol was. They should fire her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r4154892-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>4154892</t>
+  </si>
+  <si>
+    <t>11/29/2005</t>
+  </si>
+  <si>
+    <t>Right for the price</t>
+  </si>
+  <si>
+    <t>Well, now, I wouldn't really give this place five stars, except for the price, over a weekend, that totaled only $200 bills.  This is a big, 3 story, probably old Travelodge, with decent amenities.  We got a fridge and microwave for the asking.  There was a pool with nice surround and umbrellas, presumably clean though we didn't use it.  The continental breakfast, however, is token.  Rooms are nice and big.  Shower was full blast and welcome.  TV offered full cable channel lineup except for HBO and such, that we never watch on the road, anyway.  They are working on upgrading this place, and the size probably makes it expensive and slow.  Good touch was the curved shower rod that avoids death-by-polyester.  Still needed is replacement of the aluminum framed windows that are so old they are fused and repugnance producing, but for the price, don't look at them.  Beds were short of fabulous, but didn't keep one awake.  This place is as clean as the old equipment allows, and in fact sanitary.  Other reviews of Whittier lodging indicate this is the best place in town for the moment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2005</t>
+  </si>
+  <si>
+    <t>Well, now, I wouldn't really give this place five stars, except for the price, over a weekend, that totaled only $200 bills.  This is a big, 3 story, probably old Travelodge, with decent amenities.  We got a fridge and microwave for the asking.  There was a pool with nice surround and umbrellas, presumably clean though we didn't use it.  The continental breakfast, however, is token.  Rooms are nice and big.  Shower was full blast and welcome.  TV offered full cable channel lineup except for HBO and such, that we never watch on the road, anyway.  They are working on upgrading this place, and the size probably makes it expensive and slow.  Good touch was the curved shower rod that avoids death-by-polyester.  Still needed is replacement of the aluminum framed windows that are so old they are fused and repugnance producing, but for the price, don't look at them.  Beds were short of fabulous, but didn't keep one awake.  This place is as clean as the old equipment allows, and in fact sanitary.  Other reviews of Whittier lodging indicate this is the best place in town for the moment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r2451301-Vagabond_Inn_Whittier-Whittier_California.html</t>
+  </si>
+  <si>
+    <t>2451301</t>
+  </si>
+  <si>
+    <t>08/14/2004</t>
+  </si>
+  <si>
+    <t>Very clean,good location. Next to el Pollo loco restaurant and Norm's Burgers the best hamburger place in town. Very to close to the Whittwood mall, gas stations,drugstores etc. Bus stop in front ,everything you need,even Hollywood video where you can rent your favorite video.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean,good location. Next to el Pollo loco restaurant and Norm's Burgers the best hamburger place in town. Very to close to the Whittwood mall, gas stations,drugstores etc. Bus stop in front ,everything you need,even Hollywood video where you can rent your favorite video.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1826,3450 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>121</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+      <c r="O16" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>178</v>
+      </c>
+      <c r="O17" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>187</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>194</v>
+      </c>
+      <c r="X19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>198</v>
+      </c>
+      <c r="J20" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s">
+        <v>200</v>
+      </c>
+      <c r="L20" t="s">
+        <v>201</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>203</v>
+      </c>
+      <c r="X20" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>207</v>
+      </c>
+      <c r="J21" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>211</v>
+      </c>
+      <c r="O21" t="s">
+        <v>81</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>216</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>219</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>81</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>234</v>
+      </c>
+      <c r="O25" t="s">
+        <v>81</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>269</v>
+      </c>
+      <c r="O29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>279</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+      <c r="K31" t="s">
+        <v>281</v>
+      </c>
+      <c r="L31" t="s">
+        <v>282</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>283</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>298</v>
+      </c>
+      <c r="K34" t="s">
+        <v>299</v>
+      </c>
+      <c r="L34" t="s">
+        <v>300</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>306</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>307</v>
+      </c>
+      <c r="J36" t="s">
+        <v>308</v>
+      </c>
+      <c r="K36" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" t="s">
+        <v>310</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>311</v>
+      </c>
+      <c r="O36" t="s">
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" t="s">
+        <v>321</v>
+      </c>
+      <c r="K38" t="s">
+        <v>322</v>
+      </c>
+      <c r="L38" t="s">
+        <v>323</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>324</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>327</v>
+      </c>
+      <c r="J39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K39" t="s">
+        <v>329</v>
+      </c>
+      <c r="L39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>81</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>332</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+      <c r="J40" t="s">
+        <v>334</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+      <c r="L40" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>337</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>338</v>
+      </c>
+      <c r="J41" t="s">
+        <v>339</v>
+      </c>
+      <c r="K41" t="s">
+        <v>340</v>
+      </c>
+      <c r="L41" t="s">
+        <v>341</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>342</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>344</v>
+      </c>
+      <c r="J42" t="s">
+        <v>345</v>
+      </c>
+      <c r="K42" t="s">
+        <v>346</v>
+      </c>
+      <c r="L42" t="s">
+        <v>347</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>348</v>
+      </c>
+      <c r="O42" t="s">
+        <v>81</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J43" t="s">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>342</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>360</v>
+      </c>
+      <c r="J45" t="s">
+        <v>361</v>
+      </c>
+      <c r="K45" t="s">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s">
+        <v>363</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" t="s">
+        <v>81</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>370</v>
+      </c>
+      <c r="O46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>372</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>373</v>
+      </c>
+      <c r="J47" t="s">
+        <v>374</v>
+      </c>
+      <c r="K47" t="s">
+        <v>375</v>
+      </c>
+      <c r="L47" t="s">
+        <v>376</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>380</v>
+      </c>
+      <c r="K48" t="s">
+        <v>381</v>
+      </c>
+      <c r="L48" t="s">
+        <v>382</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>383</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>384</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>385</v>
+      </c>
+      <c r="J49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>388</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>389</v>
+      </c>
+      <c r="O49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>391</v>
+      </c>
+      <c r="J50" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" t="s">
+        <v>393</v>
+      </c>
+      <c r="L50" t="s">
+        <v>394</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>395</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>396</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>397</v>
+      </c>
+      <c r="J51" t="s">
+        <v>398</v>
+      </c>
+      <c r="K51" t="s">
+        <v>399</v>
+      </c>
+      <c r="L51" t="s">
+        <v>400</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>401</v>
+      </c>
+      <c r="O51" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+      <c r="J52" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>408</v>
+      </c>
+      <c r="O52" t="s">
+        <v>71</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>414</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>416</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>417</v>
+      </c>
+      <c r="J54" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s">
+        <v>419</v>
+      </c>
+      <c r="L54" t="s">
+        <v>420</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>71</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10407</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>299</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>235</v>
+      </c>
+      <c r="X55" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_819.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="482">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Mackey75</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I titled this review "Pet Friendly" because that's really the saving grace of this hotel.  Okay, it's convenient and other hotels on Whittier Blvd are as worn-out as this one is.  In spite of being pet-friendly, there isn't any area for the dogs to do their business other than the street facing lawn area you see in the photos.  What is the hotel itself like?  Rooms are small, headboards smell like BO, towels are about as thin as car wash cloth, there is not enough parking for all of the rooms and you need to let the front desk know that you want daily housekeeping.  More</t>
   </si>
   <si>
+    <t>John F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r538535840-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>I was pleasantly surprised at the comfort and quietness of this budget motel.  The room was clean and spacious.  Continental breakfast was minimal but there are many restaurants nearby.  I would definitely stay again.More</t>
   </si>
   <si>
+    <t>LLCZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r496204912-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I like this hotel and I'm lucky to get a reservation because they tend to book up very quickly.  The property is kept neat and tidy, the rooms are nice and always clean.  The staff is pleasant and helpful if you need them. They offer a light breakfast which is very convenient. More</t>
   </si>
   <si>
+    <t>LodiDazzles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r448572078-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>The description for the room says "a comfortable bed with plenty of pillows for a pleasant stay." Hmm we were greeted by a stale smelling room with three very small wadded up pillows. The room was so so. Have a few pet peeves when travel. Don't like to see mold in the bathroom and don't like taking cold showers. Got both this place. Very minimal amenities provided with one regular coffee pod for 2 people?The Inn is located on a busy street and it was fairly noisy between the road traffic and other patrons. Heard the couple next to us yelling loudly the first night were kept awake by a large family group the next. While we were listed as a non smoking room, did not have a smoking area so the other patrons just smoked on the balconies and stairways. Breakfast is always appreciated this one was very minimalist and truly continental. No sources of protein. No trays of larger carry items to bring items back to room to heat up in microwave. Very inconvenient in the pouring rain....wanted to give this place a higher rating but can not.More</t>
   </si>
   <si>
+    <t>Jay F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r447518646-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>My wife and I have stayed here once or twice a year for the last ten years and have always been happy with our rooms. However, the lack of maintaining their facility is really starting to show. Shower leaked and flooded the floor, mold on the bathroom walls, carpet so filthy that is beyond hope of ever getting cleaned. When I asked to speak with the manager/owner, I was first told they were not there. When I pointed to his car, I was told he was not available. Time to find other accommodations in Whittier.More</t>
   </si>
   <si>
+    <t>mellmell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r439288892-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Stayed here to attend a birthday party nearby, the Check-in &amp; Check-out was fast and simple.  Room was clean and the Bed was comfy.  Good Location, close to  restaurants, shopping and bars. Minutes from Uptown Whittier.  More</t>
   </si>
   <si>
+    <t>glowpicazo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433426197-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>The customer service I received was really bad, they were dismissive and I got ignored, also the rooms were dirty and I asked for a non smoking room and our room smelled like smoke soo bad. The top cover for the bed was stained, some of the walls were dirty, the carpet was stained. I think for all the money I paid I expected a lot more!More</t>
   </si>
   <si>
+    <t>EL_GQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433424801-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>Selected this hotel because I have stayed at other Vagabonds and this location meet my needs. Easy to find, had a mini-fridge and microwave. For the price I paid it did the job.  I would book this hotel again if I have to stay in the area. More</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r433408373-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>the room was  nice I liked having a frig and a big king size bed which was comfy the shower was nice I liked having cable tv the vanity area was roomy as was the closet the manger helped me with my bagsMore</t>
   </si>
   <si>
+    <t>Bent1906</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r422656049-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -411,6 +441,9 @@
     <t>Very affordable &amp; clean, Dollar Store across the street, Wells Fargo ATM, a Dunkin Donuts, El Pollo Loco. Rooms are clean, showers hot &amp; air conditioner is cold. It's a great location other food etc nearby.sMore</t>
   </si>
   <si>
+    <t>richardmC2013NT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r412519509-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -438,6 +471,9 @@
     <t>Clean and updated rooms, courteous and helpful staff. I've stayed here numerous times, and have never had any negative issues. When I need a place to stay in the area, the Vagabond Inn, will continue to be my choice. More</t>
   </si>
   <si>
+    <t>petev205</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r400190921-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -465,6 +501,9 @@
     <t>Online the room seemed normal/average. Was supposed to be a non-smoking room but the room smelled awful. It was most likely recently converted from a smoking room. The room was clean but still seemed "dingy" and poorly lit. Reserved for a week, but changed to another hotel after one night. More</t>
   </si>
   <si>
+    <t>jaymonc461</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r389260777-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -492,6 +531,9 @@
     <t>Clean and newly remodled. Centeralized and ok to walk around at dark in the neibor cose by. Im military just dropong in  and i will be usint them again only wished there was a way to book for a fool month but california will not allow you..More</t>
   </si>
   <si>
+    <t>1lovetrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r388722291-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -510,6 +552,9 @@
     <t>The showers are nice , bathroom as well , and bed was comfortable but smelled a little  funky. Front desk was helpful and  nice. Morning breakfasts was okay.  Rate was okay $135 per night at 4 of July  weekend. They do have a pool but i didnt go on it. I would stay again but I would  stay on the third floor. Our Overall stayed was pleasant. More</t>
   </si>
   <si>
+    <t>charlesmW4846KN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r380713594-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>I've stayed at the Whittier Vagabond many times due to its proximity to my sister's house and downtown and it's reasonable rates.  Other that that, it has little to recommend itself.  The rooms are reasonably clean but the walkways and stairs could use a good power-washing.  The room I stayed in my last visit had numerous maintenance issues.  The minute button on the clock didn't work so the time could not be set accurately.  The last digit of the AC/heat unit didn't light up so that setting the room's temperature was a guessing game.  And the faucet in the bathroom just flopped around.  The motel advertises a continental breakfast but it is very barebones and there is a single table in the very small lobby. Overall it's okay but could use some improvement.More</t>
   </si>
   <si>
+    <t>candlkruse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r361528250-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -564,6 +612,9 @@
     <t>The property is just getting old and needs updating rooms and outside need safety features added if they're going to have a small breakfast in the morning they need to separate it from the office otherwise a friendly placeMore</t>
   </si>
   <si>
+    <t>victorinej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r359815465-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>They did lite make over counter top &amp; faucets which were badly installed. Floor corners packed with dirt, carpet needed cleaning &amp; walls dirty. I couldn't get the table top clean with my disinfected wipes.More</t>
   </si>
   <si>
+    <t>252Jeanine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r355415300-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -609,6 +663,9 @@
     <t>The room had nice crown moldings, comfortable beds, wifi and tv.  However, the carpet was very dirty and the bedspread and shames were worn out.  Old built-up dirt in the corners on the bathroom floor.  Basically old dirt built up in many areas.  Don't go barefoot.More</t>
   </si>
   <si>
+    <t>LEWIS P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r346979394-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -636,6 +693,9 @@
     <t>Need ground level or elevator, so it is good for that. The front desk is always accomodating. Beds are good, A/c &amp; heat good &amp; ref mcro in rooms. We need a room in this area, &amp; seems one of the better but can get pricey on Wknds or holidays.Some ground floor rooms have trip hazards- watch your step on walkways. Alot of broken cement.More</t>
   </si>
   <si>
+    <t>Christy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r343406139-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -663,6 +723,9 @@
     <t>great place will stay there again  Front desk was helpful and check in was easy we checked out early the next morning so we did not use the free continental breakfast that was offered, maybe next time we stay we will not have to leave so early.More</t>
   </si>
   <si>
+    <t>DreaCrisV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r334124309-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -690,6 +753,9 @@
     <t>My fiancé and I work a lot of hours and sometimes like quiet and time to ourselves away from the animal babies and decided to stay the night at this motel. It was close to restaurants where we went for drinks and appetizers. Clean and very quiet. Close to shopping centers and decent pricing. Will stay again when we need another weekend out. More</t>
   </si>
   <si>
+    <t>Michelle G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r326358310-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -708,6 +774,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>663corona</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r326327486-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -732,6 +801,9 @@
     <t>This hotel reminded me of the seedy ones in Vegas.  We only stayed here because everywhere else was booked.  The room smelled of cigarettes and flop sweat and was kind of old.  This place could use a remodel.  For the price, I expected much nicer.More</t>
   </si>
   <si>
+    <t>TIFFCHAMP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r324794239-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -747,6 +819,9 @@
     <t xml:space="preserve">I had made reservation 10/27 had al info and email to check into my handicap room on the 1st floor HANDICAP !!!! AJ was A racial, degraded me as a female Cldnt find res no H.C. em 3hrs Ltr put on flr 2 </t>
   </si>
   <si>
+    <t>John D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r312225552-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -774,6 +849,9 @@
     <t>My wife and I checked in to the vagabond inn in Whittier on a Saturday,we were very pleased with the manager,he was very friendly and tried to accommodate us any way he could,the rooms are very clean and everything worked including the bathtub,I was amazed at that,9 of 10 motels the tub has no plug or stopper,my kids love to take baths rather than showers,the tv was a 40 inch and got a lot of channels,bed was ultimately comfortable,had a great microwave n a big fridge,pool is sparkling clear,air conditioner worked fantastic,lots of stores n food places near by,we definitely stay here againMore</t>
   </si>
   <si>
+    <t>Karen F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r303502026-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -792,6 +870,9 @@
     <t>Second time I have stayed at this hotel and they have upgraded some since I was last there.  My only complaint is the stained carpet and 80's bedspread.  The entire staff is very friendly and the continental breakfast is good. Will stay again.More</t>
   </si>
   <si>
+    <t>Karen N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r294777693-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -810,6 +891,9 @@
     <t>My daughter and I stayed here for three nights this passed week and were very pleased. The room was very clean and the bed was the comfiest bed I've ever slept in. The staff was wonderful. Very nice and willing to accommodate our needs. The location was perfect for us. We did a lot of things in Hollywood, Warner Bros Studios and the beaches. If you're not looking for fancy but rather a clean, convenient place to stay with very nice people, this is the place for you.More</t>
   </si>
   <si>
+    <t>arksmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r287459436-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -831,6 +915,9 @@
     <t>We were traveling from Vegas and looking for somewhere close to LA, CA.  Found the Vagabon Inn online and booked it.  Great location, clean rooms. Stacey was great, knew the area well and recommended several places that were great.More</t>
   </si>
   <si>
+    <t>oztabakm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r286602614-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -852,6 +939,9 @@
     <t>We chose this place for its location since it is 30 min to Disneyland, 50 min to Universal Studios. The price was reasonable and the hotel had a parking lot. There is a local supermarket next to the hotel so you can get supplies just by walking couple minutes. There are many restaurants and shopping areas on Whittier Street so you can easily have something to eat within walking distance. The hotel breakfast consists of cereals, muffins, danish pastry and fruits. If you are happy with such breakfast you will not be disappointed. The hotel needs some renovation, especially carpets need to be changed. All you need is couple minutes walk on the carpet to get your soles of feet all black.More</t>
   </si>
   <si>
+    <t>AshhKann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r274855839-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -873,6 +963,9 @@
     <t>First, we were informed that we would need to leave before 10am instead of the regular noon departure because tree trimmers were expected.  sure enough, they showed up...at 8:15 AM, with all the noise you would expect.Second, the room was not clean.  The easy chair was so stained, that i placed a towel over it.  The bath mat had a long black hair attached to it.  Wait, i am not done.  Two of the three pillows also had several long black hairs clinging to them.  I had my own pillows, but i did not sleep well.  In fact i would have not stayed except it was so late and i was tired.To top all this off, while packing up to leave i found a cute little bug under the covers...ughI will NEVER stay at this hotel again!!Very dissapointedMore</t>
   </si>
   <si>
+    <t>Jim-Denise-MB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r211586712-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -891,6 +984,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Darlene A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r211019614-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -906,6 +1002,9 @@
     <t>We stayed here one night, between a rosary and a funeral, so it was extremely important to have a comfortable room. Not only was the room rate very good, but the king bed, the shower, and the flat screen TV all showed what a good job they had done in renovating the hotel. The bed was as good as we have at home, and the shower had a "rain" type shower head. Combined with big fluffy towels, we were very glad we picked this hotel.</t>
   </si>
   <si>
+    <t>Amberkauffman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r206308367-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -921,6 +1020,9 @@
     <t xml:space="preserve">It was a great place close to restaurants, shopping and close to the main highways. The rooms were a nice size. I will defiantly stay there Again next time I'm in the area. An inexpensive option but good quality option. </t>
   </si>
   <si>
+    <t>RodneyWilkins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r180458220-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -936,6 +1038,9 @@
     <t>I really like this hotel . Clean and good service the negatives are:Useless WiFiUseless TV. Both kept cutting out. I am here to work and made things very difficult.The breakfast is a bad joke. Only junk food available.Having said that, I would stay here again if I needed to be in this area.</t>
   </si>
   <si>
+    <t>RICARDITO34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r175775159-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -954,6 +1059,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>homerqsmedley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r161722959-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -973,6 +1081,9 @@
   </si>
   <si>
     <t>We were travelling to Whittier to our granddaughter's graduation from Whittier College.  When my husband told me that he booked us into the Vagabond Inn, I was not thrilled.  However, upon arrival there, I was pleasantly surprised to find that the room had obviously been recently renovated with all new fixtures in the bathroom including an ecologically correct state-of-the-art toilet.  The room was very clean and the mattress must have been new because it was so comfortable.  The breakfast was located in the office and was the usual cereal, muffins, sweet roll, etc.  No place was available to sit except outside or back in your room.  However, the only truly upscale hotel in Whittier charges at least $100 more per night with no free breakfast.   The Vagabond owners are working to upgrade the motel and obviously care about its appearance as they maintain cheerful flower plantings and shrubs around the parking area and the pool.  All of the staff was very pleasant and friendly.More</t>
+  </si>
+  <si>
+    <t>JoshuaTreeMusicman</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r154800740-Vagabond_Inn_Whittier-Whittier_California.html</t>
@@ -1004,6 +1115,9 @@
 BTW: there is a great little family owned restaurant just west of the...We must have been given a room that was in the process of renovation. (Room 306). The room was very musty when we arrived, but we just opened the (what seemed to be new) window and turned on the pleasantly quiet air conditioning. The smell dissipated fairly quickly. The light on the phone was blinking upon arrival (we expected the traditional recorded welcome so many motels use these days) but the button was permanently depressed so we couldn't get the message. We covered the blinking light with the note pad. There was no flat-screen T.V. - not a big deal for us. But, there was a functional microwave and a small refrigerator. The bathroom looked freshly tiled, but whoever painted it let the paint run down and pool in one of the corners. Also, though we had a non-smoking room, there was a cigarette stain on the toilet seat. And, maintenance people take note - the bathroom door could not be closed! (Also, spray a little WD-40 on that fan - it'll probably quiet right down.) The ceiling in the room was obviously water damaged at some point and is in poor condition. The beds seemed fine though the covers and carpeting were really out-dated. The highway is a little noisy and be forewarned - a hospital is nearby - we were wakened four times by sirens.BTW: there is a great little family owned restaurant just west of the motel - Scottys - nice people and good food!More</t>
   </si>
   <si>
+    <t>PanthersFan510</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r153464815-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1022,6 +1136,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>BellaO6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r152980040-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1037,6 +1154,9 @@
     <t>Really, at this price point, it is better than would be expected.  Recently updated rooms and clean, which is my most important criteria. Only complaint would be that the nice man at the front desk had no clue as to the area.  The only places he knew to eat at were Polly's (which despite being obviously closed due to a fire, the huge bariicade one could see from the Vagabond, he kept reccomending to us) and MacDonald's.  Imagine our surprise the next morning in finding tons of choices within a few miles!  Geesh, did they just beam him into the front office?!</t>
   </si>
   <si>
+    <t>Joyce U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r146703675-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1055,6 +1175,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>TravelDeFamly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r146343186-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1073,6 +1196,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>Kathy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r143737586-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1085,6 +1211,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>LydiaLucero</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r136098723-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1103,6 +1232,9 @@
     <t>This motel was clean and the service was good.  Breakfast means small danishes and muffins, cereal, coffee, juice, and milk that you pick up to go from the desk.  I don't have much experience staying in motels, but it seemed nice. Pros:Clean rooms and linens.Cons:The walls are a bit too thin for my taste; there were contruction workers were staying next door to me and woke me up every morning at a ridiculous hour talking outside my door and running their trucks.  Also, the landscaper/gardener was using a leaf blower before I had a chance to go about my business for the day.  I would definitely recommend that if you choose to stay here you request a room that is NOT on the ground floor.More</t>
   </si>
   <si>
+    <t>jdward</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r136000207-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1121,6 +1253,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>djz032070</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r133407430-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1142,6 +1277,9 @@
     <t>Booked at a good rate for 5 nights thru Expedia.  Check-in was nice and easy.  Sweet elderly ladies run the desk.  We knew it had been remodeled 2 years ago, but our room on the 2nd floor which faced the pool (which was nice and clean) looked more like it had been done 2 months ago.  Very clean and new!  Microwave, fridge and flat screen were all relatively new.  A/c worked fine.  Had iron and board.  Housekeeping came every day and did a great job.  The showerhead was of a much higher quality than most motels or "inns".  Breakfast was the absolute basics, didn't bother with loads of options for all daily meals in both directions.  Easy to find from LAX, about an hour and 15 minutes during peak traffic hours.  Only 30 minutes from Disneyland Resort and Universal Studios.  Right around the corner from downtown Whittier which is fantastic.   It was so quiet and safe.  The bed was one of the most comfortable beds I have ever slept on.  A+ on that!  Highly recommend!More</t>
   </si>
   <si>
+    <t>jleigh81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r120763611-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1160,6 +1298,9 @@
     <t>I stay here about 3 times a yr. It is blocks away from my fathers house is why I stay here when I visit SoCal but wanted to write a review to showcase what a great central location it is to everything else the greater LA area has to offer. Seems it's just minutes to everywhere.We have used this hotel as a base for visits to KnoxBerry Farm, Santa monico and Venice beach, HW,BH,HB,Disney Land ect... Flown in from LGB,SNA,LAX &amp; BUR Not to bad of a drive from any...Overall I like this Inn and it's location and will continue to use them when I visit b/c the price is right, the rooms are clean, staff is friendly and I think it's central location to everything(IMO) Rocks!!!More</t>
   </si>
   <si>
+    <t>Gillamite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r120633871-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1178,6 +1319,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>em4dh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r118428132-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1196,6 +1340,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>jnc106</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r87910877-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1212,6 +1359,9 @@
   </si>
   <si>
     <t>November 2010</t>
+  </si>
+  <si>
+    <t>closingdeals</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r76567446-Vagabond_Inn_Whittier-Whittier_California.html</t>
@@ -1253,6 +1403,9 @@
 4. Breakfast was simple...We needed a last minute hotel in LA area that is pet friendly, safe and clean because of an early baby arrival. We systematically search the Internet and comb everything within a 10 miles radius from LA. Found that there are quite a number that are priced around or slight lower or higher than Vagabond. However, the lower priced one, when I called and said we want double beds, there's a baby and a pet --- their prices went UP (much higher than Vagabond's)!! Vagabond is also one of the few that have reviewS on Expedia and that prompted us to try it out. Our thoughts is that we'll do a 3-days booking and can always move to another if needed.Here's why I give them 5 stars recommendations -1. Smooth, hassle free check-in2. On day 2, our HUGE 120 pounds Old English Sheepdog sneaked out of the room!!- fortunately the hotel staff noticed it- they managed to coax him, got hold of him and put our dog into another empty room which they secured thoroughly! (you see, they were fearful that our dog is a houdini who knows how to open doors)- They called us on the mobile and this ends well!!!3. The cleaners for the room were very flexible and worked with us on the time for cleaning (because we need to 'walk' our dog at that time)4. Breakfast was simple but more than adequate - muffins, cereals, coffee, tea ....5. Management is very helpful when we needed extra towels, to send or receive fax .... in fact, we enjoyed just talking to them whenever we pass by the lobby6. We've driven around and are very happy that we did not stay at any of the other hotels which look shabby and unclean. Vagabond is in a safe neighborhood, clean and we extended our stay to more than a week!7. We even drove to Disney from there (short and easy drive)8. Food, restaurants, Target, the mall ....everything is nearby!Well, we are not hotel critiques or experts BUT we know a good value, friendly people and a great dog friendly hotelGansSeattleMore</t>
   </si>
   <si>
+    <t>Ivan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r53867686-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1271,6 +1424,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>alnjudy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r8260112-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1292,6 +1448,9 @@
     <t>First of all, the staff who was  woman name Carol was VERY rude. The room we stayed in is filthy and disgusting, spots all over the floor and holes in the walls. Then we went to go to the pool... We took a guest with us that we were visiting while we were in town and they kicked the guest out saying that ONLY people who stayed in the hotel could use their pool.  When I asked to speak to the manager and what her name was, she told me "KP". I said is KP her whole name and she said that was all she was going to tell me was "KP". I never did get to talk to her.And pets are allowed here, but they charge $10.00 per night, per pet something else that their site fails to mention. When my husband was putting a plug in the outlet, it sparked. This place is terrible, We would never stay here again.!I probably could of handled most of it, except when staff are rude like Carol was. They should fire her.More</t>
   </si>
   <si>
+    <t>DWGriffith</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r4154892-Vagabond_Inn_Whittier-Whittier_California.html</t>
   </si>
   <si>
@@ -1311,6 +1470,9 @@
   </si>
   <si>
     <t>Well, now, I wouldn't really give this place five stars, except for the price, over a weekend, that totaled only $200 bills.  This is a big, 3 story, probably old Travelodge, with decent amenities.  We got a fridge and microwave for the asking.  There was a pool with nice surround and umbrellas, presumably clean though we didn't use it.  The continental breakfast, however, is token.  Rooms are nice and big.  Shower was full blast and welcome.  TV offered full cable channel lineup except for HBO and such, that we never watch on the road, anyway.  They are working on upgrading this place, and the size probably makes it expensive and slow.  Good touch was the curved shower rod that avoids death-by-polyester.  Still needed is replacement of the aluminum framed windows that are so old they are fused and repugnance producing, but for the price, don't look at them.  Beds were short of fabulous, but didn't keep one awake.  This place is as clean as the old equipment allows, and in fact sanitary.  Other reviews of Whittier lodging indicate this is the best place in town for the moment.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33268-d82662-r2451301-Vagabond_Inn_Whittier-Whittier_California.html</t>
@@ -1830,34 +1992,38 @@
       <c r="A2" t="n">
         <v>10407</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -1874,56 +2040,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10407</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1937,56 +2107,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10407</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1998,56 +2172,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10407</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2065,56 +2243,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10407</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2126,56 +2308,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10407</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2187,56 +2373,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10407</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2248,56 +2438,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10407</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2309,56 +2503,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10407</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2370,56 +2568,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10407</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2431,56 +2633,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>10407</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2492,56 +2698,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>10407</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2553,56 +2763,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>10407</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2614,56 +2828,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>10407</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2675,56 +2893,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>10407</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2736,56 +2958,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>10407</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2797,56 +3023,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>10407</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2858,56 +3088,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>10407</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2923,56 +3157,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="X19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="Y19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>10407</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>215</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2984,56 +3222,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Y20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>10407</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>225</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="L21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3051,56 +3293,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="X21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="Y21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>10407</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="K22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3112,56 +3358,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>10407</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3179,50 +3429,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>10407</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>252</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -3244,56 +3498,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>10407</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -3317,50 +3575,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>10407</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3372,56 +3634,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>10407</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3437,47 +3703,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>10407</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>284</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="K28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="L28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -3494,56 +3764,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>10407</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>291</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="O29" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3559,56 +3833,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X29" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>10407</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>299</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="O30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3624,56 +3902,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>10407</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>307</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3691,50 +3973,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>10407</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3758,50 +4044,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>10407</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3823,41 +4113,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>10407</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>328</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
@@ -3886,41 +4180,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>10407</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
@@ -3949,50 +4247,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>10407</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>340</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4016,50 +4318,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>10407</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4083,50 +4389,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>10407</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>355</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P38" t="n">
         <v>2</v>
@@ -4150,50 +4460,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>10407</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J39" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="K39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="L39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4217,50 +4531,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>10407</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>370</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J40" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K40" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="O40" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4284,50 +4602,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>10407</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4351,50 +4673,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>10407</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>383</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="O42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4418,35 +4744,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>10407</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>390</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="J43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4454,10 +4784,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4478,51 +4808,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>10407</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4546,50 +4877,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>10407</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4613,50 +4948,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>10407</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4680,41 +5019,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>10407</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -4743,50 +5086,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>10407</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -4810,50 +5157,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>10407</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>385</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s">
-        <v>387</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="O49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -4877,50 +5228,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>10407</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>438</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="J50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="K50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -4944,50 +5299,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>10407</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="K51" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="L51" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="O51" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5011,50 +5370,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>10407</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>453</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>454</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>455</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="O52" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5078,50 +5441,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>10407</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>460</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="O53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -5145,50 +5512,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>10407</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>468</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>416</v>
+        <v>469</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="J54" t="s">
-        <v>418</v>
+        <v>471</v>
       </c>
       <c r="K54" t="s">
-        <v>419</v>
+        <v>472</v>
       </c>
       <c r="L54" t="s">
-        <v>420</v>
+        <v>473</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5210,41 +5581,45 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>10407</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>476</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>423</v>
+        <v>477</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="J55" t="s">
-        <v>425</v>
+        <v>479</v>
       </c>
       <c r="K55" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -5261,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="X55" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="Y55" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
